--- a/Task/2014-08-22_RA_分经营属性周转报表开发/PLP ODI table.xlsx
+++ b/Task/2014-08-22_RA_分经营属性周转报表开发/PLP ODI table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\D\WORK\步步高\Task\2014-08-22_RA_分经营属性周转报表开发\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\BBG\Task\2014-08-22_RA_分经营属性周转报表开发\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
